--- a/data/branch_BR002.xlsx
+++ b/data/branch_BR002.xlsx
@@ -464,7 +464,7 @@
         <v>test3@gmail.com</v>
       </c>
       <c r="I2" t="str">
-        <v>2025-09-11T09:03:12.736Z</v>
+        <v>2025-09-17T07:58:39.993Z</v>
       </c>
     </row>
   </sheetData>
@@ -510,16 +510,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1757768217276</v>
+        <v>1758095905760</v>
       </c>
       <c r="B2" t="str">
-        <v>eid5</v>
+        <v>eid6</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="str">
-        <v>2025-09-13T12:56:57.276Z</v>
+        <v>2025-09-17T07:58:25.760Z</v>
       </c>
     </row>
   </sheetData>
